--- a/data/trans_media/IQ3003_MoAR-Habitat-trans_media.xlsx
+++ b/data/trans_media/IQ3003_MoAR-Habitat-trans_media.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,81</t>
+          <t>4,0; 5,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,76</t>
+          <t>5,26; 6,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -720,19 +720,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 5,72</t>
+          <t>4,5; 5,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,41</t>
+          <t>4,81; 6,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,52</t>
+          <t>4,67; 5,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,81</t>
+          <t>5,1; 6,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,3</t>
+          <t>5,1; 6,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 5,52</t>
+          <t>4,76; 5,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 6,37</t>
+          <t>5,46; 6,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,95; 6,66</t>
+          <t>4,94; 6,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,44</t>
+          <t>4,79; 5,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 6,3</t>
+          <t>5,42; 6,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 6,18</t>
+          <t>5,21; 6,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 5,62</t>
+          <t>4,8; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 6,51</t>
+          <t>5,43; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,89</t>
+          <t>4,81; 5,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 5,7</t>
+          <t>4,84; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,03</t>
+          <t>5,09; 6,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,02</t>
+          <t>5,23; 6,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 5,47</t>
+          <t>4,9; 5,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 6,08</t>
+          <t>5,36; 6,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 5,75</t>
+          <t>5,14; 5,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 6,04</t>
+          <t>4,82; 6,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,74; 5,8</t>
+          <t>4,68; 5,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,32</t>
+          <t>5,65; 8,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,62</t>
+          <t>4,81; 5,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,22</t>
+          <t>5,12; 6,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,66</t>
+          <t>5,3; 6,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 5,65</t>
+          <t>4,94; 5,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 5,89</t>
+          <t>5,09; 5,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,21</t>
+          <t>5,62; 7,11</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 6,12</t>
+          <t>4,97; 6,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,56</t>
+          <t>5,32; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 5,96</t>
+          <t>5,08; 5,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,58</t>
+          <t>4,46; 5,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,93</t>
+          <t>5,26; 8,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,64</t>
+          <t>5,9; 7,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 5,64</t>
+          <t>4,84; 5,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 7,13</t>
+          <t>5,43; 7,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,7</t>
+          <t>5,68; 6,72</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1235,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 5,61</t>
+          <t>5,06; 5,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,07</t>
+          <t>5,44; 6,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 6,1</t>
+          <t>5,43; 6,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 5,38</t>
+          <t>4,85; 5,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,22 +1260,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 6,34</t>
+          <t>5,63; 6,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,02; 5,39</t>
+          <t>5,01; 5,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,12</t>
+          <t>5,49; 6,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,62; 6,14</t>
+          <t>5,62; 6,09</t>
         </is>
       </c>
     </row>
